--- a/gitlab_ce_ee_comparison.xlsx
+++ b/gitlab_ce_ee_comparison.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vimal\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A332A64-2264-472A-960A-8E60364B0B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -101,13 +108,214 @@
   </si>
   <si>
     <t>Executives oversee multiple project statuses and align strategies.</t>
+  </si>
+  <si>
+    <t>Project Management Features:</t>
+  </si>
+  <si>
+    <t>Detailed Example</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>Allows assigning more than one team member to a single issue, facilitating collaborative work.</t>
+  </si>
+  <si>
+    <t>In a complex feature development, both a backend and frontend developer need to collaborate. Assigning both to the same issue ensures clear responsibility and tracking.</t>
+  </si>
+  <si>
+    <t>Provides a visual timeline of project milestones and epics, aiding in strategic planning and tracking.</t>
+  </si>
+  <si>
+    <t>A product manager can view the roadmap to understand upcoming features' timelines, ensuring alignment with market launches.</t>
+  </si>
+  <si>
+    <t>Code and Productivity Analytics</t>
+  </si>
+  <si>
+    <t>Offers insights into code contributions and team productivity metrics.</t>
+  </si>
+  <si>
+    <t>Engineering leads can analyze commit frequencies and identify bottlenecks in the development process, enabling data-driven decisions to improve efficiency.</t>
+  </si>
+  <si>
+    <t>Single Level Epics</t>
+  </si>
+  <si>
+    <t>Enables grouping related issues under a single "epic" to manage larger bodies of work.</t>
+  </si>
+  <si>
+    <t>For a new payment system, an epic can encompass issues like "Design UI", "Implement API", and "Set Up Database", providing a consolidated view of progress.</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Supports defining time-boxed periods for completing sets of issues, aligning with agile methodologies.</t>
+  </si>
+  <si>
+    <t>A team working in two-week sprints can use iterations to ensure consistent delivery cycles and monitor velocity over time.</t>
+  </si>
+  <si>
+    <t>Quality Management</t>
+  </si>
+  <si>
+    <t>Facilitates tracking of test cases and quality-related metrics within the project.</t>
+  </si>
+  <si>
+    <t>QA teams can create and manage test cases directly in GitLab, linking them to relevant issues and ensuring comprehensive test coverage before releases.</t>
+  </si>
+  <si>
+    <t>Status Page</t>
+  </si>
+  <si>
+    <t>Provides an external interface to communicate the current status of the system to stakeholders.</t>
+  </si>
+  <si>
+    <t>During a service outage, the status page can display real-time updates, informing users about the issue and expected resolution time, enhancing transparency and trust.</t>
+  </si>
+  <si>
+    <t>Security and Compliance Features:</t>
+  </si>
+  <si>
+    <t>Automatically scans the codebase for hardcoded secrets like API keys or passwords to prevent accidental exposure.</t>
+  </si>
+  <si>
+    <t>A developer inadvertently commits an AWS secret key. GitLab EE detects this and alerts the team, preventing potential security breaches.</t>
+  </si>
+  <si>
+    <t>Static Application Security Testing (SAST)</t>
+  </si>
+  <si>
+    <t>Analyzes source code for known vulnerabilities without executing the program.</t>
+  </si>
+  <si>
+    <t>Before merging a new feature, SAST scans reveal a SQL injection vulnerability in the code, allowing developers to address it proactively.</t>
+  </si>
+  <si>
+    <t>Audit Events</t>
+  </si>
+  <si>
+    <t>Logs detailed records of key events and changes within the system for compliance and monitoring purposes.</t>
+  </si>
+  <si>
+    <t>Security teams can review audit logs to trace who accessed sensitive data or modified critical configurations, aiding in forensic analysis.</t>
+  </si>
+  <si>
+    <t>Verified Committer</t>
+  </si>
+  <si>
+    <t>Ensures that only authorized contributors can commit to specific branches, enhancing code integrity.</t>
+  </si>
+  <si>
+    <t>Only senior developers are permitted to commit directly to the main branch. This feature enforces that policy, reducing the risk of unauthorized changes.</t>
+  </si>
+  <si>
+    <t>Restrict Push/Merge Access</t>
+  </si>
+  <si>
+    <t>Allows setting granular permissions to control who can push or merge code to protected branches.</t>
+  </si>
+  <si>
+    <t>Junior developers might have push access to feature branches but not to the main branch, ensuring that merges to production are handled by experienced team members.</t>
+  </si>
+  <si>
+    <t>Vulnerability Management</t>
+  </si>
+  <si>
+    <t>Provides tools to identify, assess, and remediate vulnerabilities within the project.</t>
+  </si>
+  <si>
+    <t>After a security scan, vulnerabilities are listed with severity ratings, and developers can create issues directly from these findings to track remediation efforts.</t>
+  </si>
+  <si>
+    <t>Security Dashboards</t>
+  </si>
+  <si>
+    <t>Offers a centralized view of the project's security status, displaying metrics and trends over time.</t>
+  </si>
+  <si>
+    <t>A CISO can use the dashboard to monitor the number of open vulnerabilities, their severity distribution, and track the effectiveness of remediation efforts over months.</t>
+  </si>
+  <si>
+    <t>Dependency Scanning</t>
+  </si>
+  <si>
+    <t>Examines project dependencies for known vulnerabilities, ensuring third-party libraries are secure.</t>
+  </si>
+  <si>
+    <t>Incorporating an outdated encryption library triggers a dependency scan alert about a critical vulnerability, prompting an immediate update to a safer version.</t>
+  </si>
+  <si>
+    <t>Project Dependency List</t>
+  </si>
+  <si>
+    <t>Generates a comprehensive list of all project dependencies, aiding in license compliance and vulnerability assessment.</t>
+  </si>
+  <si>
+    <t>Before releasing the software, the legal team reviews the dependency list to ensure all third-party components comply with the project's licensing policies.</t>
+  </si>
+  <si>
+    <t>Dynamic Application Security Testing (DAST)</t>
+  </si>
+  <si>
+    <t>Tests the running application for vulnerabilities by simulating external attacks.</t>
+  </si>
+  <si>
+    <t>A staging environment undergoes DAST, revealing that certain endpoints are susceptible to cross-site scripting attacks, which are then addressed before production deployment.</t>
+  </si>
+  <si>
+    <t>Compliance Dashboard</t>
+  </si>
+  <si>
+    <t>Provides an overview of the project's adherence to compliance frameworks and policies.</t>
+  </si>
+  <si>
+    <t>Compliance officers can quickly assess which projects are meeting internal security policies and identify areas requiring attention.</t>
+  </si>
+  <si>
+    <t>Requirements Management</t>
+  </si>
+  <si>
+    <t>Facilitates the documentation, tracking, and management of project requirements within GitLab.</t>
+  </si>
+  <si>
+    <t>For a medical device software project, specific regulatory requirements are documented and linked to corresponding issues and tests, ensuring traceability and compliance.</t>
+  </si>
+  <si>
+    <t>Portfolio Management Features:</t>
+  </si>
+  <si>
+    <t>Provides insights into individual and team contributions over time.</t>
+  </si>
+  <si>
+    <t>Managers can identify top contributors, monitor team workload distribution, and recognize potential burnout or underutilization.</t>
+  </si>
+  <si>
+    <t>Enables tracking and managing multiple projects across the organization from a single interface.</t>
+  </si>
+  <si>
+    <t>Executives can oversee the status of various initiatives, ensuring resources are allocated effectively and strategic goals are being met.</t>
+  </si>
+  <si>
+    <t>Issue and Epic Health Reporting</t>
+  </si>
+  <si>
+    <t>Offers reports on the progress and health of issues and epics, highlighting potential risks or delays.</t>
+  </si>
+  <si>
+    <t>A delayed epic with multiple overdue issues triggers a health alert, prompting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,10 +367,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,13 +385,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +437,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +506,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -524,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -544,7 +769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -584,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -602,6 +827,467 @@
       </c>
       <c r="F7" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33D469-4D9C-4C71-9AB9-8705158F4FA5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A3:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="141.140625" customWidth="1"/>
+    <col min="5" max="5" width="216" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gitlab_ce_ee_comparison.xlsx
+++ b/gitlab_ce_ee_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vimal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A332A64-2264-472A-960A-8E60364B0B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA9211-19D1-419D-AD81-9820EEAA1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F33D469-4D9C-4C71-9AB9-8705158F4FA5}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A4" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
